--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1868AAAD-5703-4964-88A8-37EFCC1F6268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E5F60C-7937-400A-9A6D-5A3733010603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="02Dec2022" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="01Dec2022" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>Smart Store</t>
   </si>
@@ -119,27 +121,219 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Variance (Buffer)</t>
-  </si>
-  <si>
-    <t>Exception (Risk)</t>
-  </si>
-  <si>
-    <t>Std Variance</t>
-  </si>
-  <si>
     <t>a * (b/c)</t>
   </si>
   <si>
     <t>(a * b) /c</t>
+  </si>
+  <si>
+    <t>Problem Statement</t>
+  </si>
+  <si>
+    <t>Probable Solutions</t>
+  </si>
+  <si>
+    <t>Choosing the best Solutions</t>
+  </si>
+  <si>
+    <t>Input to the System</t>
+  </si>
+  <si>
+    <t>Output from the System</t>
+  </si>
+  <si>
+    <t>Minimum and Maximum Inventory</t>
+  </si>
+  <si>
+    <t>Space Available for expanding Inventory Range</t>
+  </si>
+  <si>
+    <t>Optimize Inventory Replenishment</t>
+  </si>
+  <si>
+    <t>Total Purchases</t>
+  </si>
+  <si>
+    <t>Current Stock</t>
+  </si>
+  <si>
+    <t>Single Order Qty</t>
+  </si>
+  <si>
+    <t>No Of Orders</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>FIFO</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>older than 4 weeks</t>
+  </si>
+  <si>
+    <t>Aging Inventory Warning</t>
+  </si>
+  <si>
+    <t>Shelf Life</t>
+  </si>
+  <si>
+    <t>Devide and Rule</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Prioritize</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Reprioritize</t>
+  </si>
+  <si>
+    <t>Std Buffer</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>50g</t>
+  </si>
+  <si>
+    <t>20g</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Margin in Currency not in percentage</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Comparision</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Perform</t>
+  </si>
+  <si>
+    <t>Chhapa Paka</t>
+  </si>
+  <si>
+    <t>If sitting then stand up</t>
+  </si>
+  <si>
+    <t>Spit</t>
+  </si>
+  <si>
+    <t>Check if you are in a sitting position</t>
+  </si>
+  <si>
+    <t>Do a sit-up</t>
+  </si>
+  <si>
+    <t>Check if the saliva has dried off</t>
+  </si>
+  <si>
+    <t>if dired off, then stop doing sit-up</t>
+  </si>
+  <si>
+    <t>else go to step 4</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spit
+if (you are sitting ?) then 
+  StandUp
+end
+4:
+SitUp
+if (Saliva Not Dired  Off?) then
+  GoTo 4
+end
+---------------------------------------------------
+Spit
+if (you are sitting ?) then 
+  StandUp
+end
+Keep doing Situp Till Saliva is dired off
+do Sit-Up until Saliva is not dired Off
+do 
+        Sit-Up 
+until (is  Saliva not dired Off?)
+</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Spit();
+if (Sitting == true){
+  StandUp();
+}
+do{
+  SitUp();
+} while(SalivaDiredOff == true);</t>
+  </si>
+  <si>
+    <t>Spit();
+if (Sitting == true){
+  StandUp();
+}
+while(SalivaDiredOff == true){
+  SitUp();
+}</t>
+  </si>
+  <si>
+    <t>Uth Bas ho je parjyanta chhapa nasukhichi kintu at least 5 thara habaku badhya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -193,12 +387,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,11 +684,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B36C26-1E5B-4948-AB31-78D6977E3E12}">
+  <dimension ref="C2:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>600</v>
+      </c>
+      <c r="L10">
+        <v>60</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10">
+        <v>120</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5A8E8-159B-44AC-AA58-BA25A740A2E1}">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C29"/>
+    <mergeCell ref="D14:D29"/>
+    <mergeCell ref="E14:E29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:S25"/>
+  <dimension ref="C3:V27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
         <v>25</v>
       </c>
@@ -638,16 +1310,13 @@
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="M19">
         <v>15</v>
       </c>
@@ -662,7 +1331,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
       <c r="O21">
         <f>3*25/100</f>
         <v>0.75</v>
@@ -672,23 +1341,78 @@
         <v>5.0000000000000009</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
       <c r="O22">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
       <c r="P24">
         <f>M19+P21</f>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>100</v>
+      </c>
+      <c r="V26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>0.2</v>
+      </c>
+      <c r="P27">
+        <f>0.2*100/4</f>
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>51</v>
+      </c>
+      <c r="T27">
+        <f>R27*N27</f>
+        <v>204</v>
+      </c>
+      <c r="V27">
+        <f>R27*O27</f>
+        <v>10.200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E5F60C-7937-400A-9A6D-5A3733010603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1DAC17-C512-4F3C-9260-F62D05A9F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02Dec2022" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>Smart Store</t>
   </si>
@@ -221,27 +221,6 @@
   </si>
   <si>
     <t>Margin in Currency not in percentage</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Comparision</t>
-  </si>
-  <si>
-    <t>Iteration</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>Perform</t>
-  </si>
-  <si>
-    <t>Chhapa Paka</t>
   </si>
   <si>
     <t>If sitting then stand up</t>
@@ -317,7 +296,52 @@
 }</t>
   </si>
   <si>
-    <t>Uth Bas ho je parjyanta chhapa nasukhichi kintu at least 5 thara habaku badhya</t>
+    <t>Space Information</t>
+  </si>
+  <si>
+    <t>Purchase Information</t>
+  </si>
+  <si>
+    <t>Sale Informatin</t>
+  </si>
+  <si>
+    <t>Bar / QR Code</t>
+  </si>
+  <si>
+    <t>Stock Level</t>
+  </si>
+  <si>
+    <t>Sale Information</t>
+  </si>
+  <si>
+    <t>Wastage, breakage. Expiry</t>
+  </si>
+  <si>
+    <t>Stock Information at the time of Purchase Entry</t>
+  </si>
+  <si>
+    <t>Cycle counting</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Location Random</t>
+  </si>
+  <si>
+    <t>Location Sequence</t>
+  </si>
+  <si>
+    <t>Location Manual</t>
+  </si>
+  <si>
+    <t>Stock Information</t>
+  </si>
+  <si>
+    <t>Breakage, Expiry Information</t>
+  </si>
+  <si>
+    <t>I have huge number of items, it is very difficult for me to enter and maintain these in the system</t>
   </si>
 </sst>
 </file>
@@ -400,10 +424,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B36C26-1E5B-4948-AB31-78D6977E3E12}">
-  <dimension ref="C2:P25"/>
+  <dimension ref="C2:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,6 +747,9 @@
       <c r="F3" t="s">
         <v>34</v>
       </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>50</v>
       </c>
@@ -734,6 +761,9 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>51</v>
       </c>
@@ -745,6 +775,9 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>52</v>
       </c>
@@ -757,16 +790,13 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
@@ -829,113 +859,98 @@
       <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="5"/>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
         <v>82</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I24">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25" t="s">
-        <v>74</v>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5A8E8-159B-44AC-AA58-BA25A740A2E1}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E29"/>
     </sheetView>
   </sheetViews>
@@ -965,10 +980,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -976,168 +991,168 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="10"/>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1DAC17-C512-4F3C-9260-F62D05A9F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122CC8F9-1010-4FFD-A608-6F74748030B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02Dec2022" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="01Dec2022" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="01Dec2022" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Smart Store</t>
   </si>
@@ -342,6 +344,111 @@
   </si>
   <si>
     <t>I have huge number of items, it is very difficult for me to enter and maintain these in the system</t>
+  </si>
+  <si>
+    <t>Purchase in last 3 Months</t>
+  </si>
+  <si>
+    <t>2 Months Old Stock</t>
+  </si>
+  <si>
+    <t>Fresh Stock</t>
+  </si>
+  <si>
+    <t>Sale / Month</t>
+  </si>
+  <si>
+    <t>Dead Stock</t>
+  </si>
+  <si>
+    <t>3 Months Old stock</t>
+  </si>
+  <si>
+    <t>at the end of 1st Month</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>1 Month Old Stock</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>at the end of 2nd Month</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Less Discount</t>
+  </si>
+  <si>
+    <t>10+1</t>
+  </si>
+  <si>
+    <t>Target Sale</t>
+  </si>
+  <si>
+    <t>Mobile App</t>
+  </si>
+  <si>
+    <t>Web App</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>delimited data</t>
+  </si>
+  <si>
+    <t>Position based data</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Watcher</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Plug Ins</t>
+  </si>
+  <si>
+    <t>3rd Party Integration Library</t>
+  </si>
+  <si>
+    <t>Web Services</t>
   </si>
 </sst>
 </file>
@@ -365,12 +472,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -411,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -429,6 +548,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,18 +830,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B36C26-1E5B-4948-AB31-78D6977E3E12}">
-  <dimension ref="C2:P29"/>
+  <dimension ref="C2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
@@ -797,11 +919,17 @@
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
       <c r="N8" t="s">
         <v>44</v>
       </c>
@@ -810,6 +938,9 @@
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
@@ -859,9 +990,6 @@
       <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
@@ -870,9 +998,6 @@
       <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
@@ -880,9 +1005,6 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
@@ -951,6 +1073,11 @@
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="L29" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +1087,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA28CA-67D8-4BCF-A68C-482BB86AEB00}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5A8E8-159B-44AC-AA58-BA25A740A2E1}">
   <dimension ref="A2:E29"/>
   <sheetViews>
@@ -1164,7 +1414,335 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E2B513-F2C8-4386-973A-59B4FC26D85D}">
+  <dimension ref="A8:M23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>10</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <v>20</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
+      <c r="I19" s="12">
+        <v>2</v>
+      </c>
+      <c r="J19" s="12">
+        <v>3</v>
+      </c>
+      <c r="K19" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="12">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="12">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>10</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:V27"/>
   <sheetViews>

--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\SmartStore\Documents\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122CC8F9-1010-4FFD-A608-6F74748030B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA95BD0D-6685-4C0B-89BE-FC5009435A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="156">
   <si>
     <t>Smart Store</t>
   </si>
@@ -449,6 +449,96 @@
   </si>
   <si>
     <t>Web Services</t>
+  </si>
+  <si>
+    <t>Store Information</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>NoSQL</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>LocalStorage</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Temporary Storage</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Rough</t>
   </si>
 </sst>
 </file>
@@ -542,14 +632,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA28CA-67D8-4BCF-A68C-482BB86AEB00}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,47 +1192,47 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>112</v>
       </c>
@@ -1150,58 +1240,219 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>117</v>
       </c>
       <c r="E11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>114</v>
       </c>
       <c r="E12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>2021</v>
+      </c>
+      <c r="K13">
+        <v>2021</v>
+      </c>
+      <c r="M13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1213,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5A8E8-159B-44AC-AA58-BA25A740A2E1}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1483,7 @@
       <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1243,7 +1494,7 @@
       <c r="B3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1252,7 +1503,7 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1261,7 +1512,7 @@
       <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1270,7 +1521,7 @@
       <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1279,7 +1530,7 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1288,32 +1539,32 @@
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="10"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
+      <c r="C13" s="12"/>
       <c r="D13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="10"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1321,88 +1572,88 @@
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1560,81 +1811,81 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>20</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
         <v>2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <v>3</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>4</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>10</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>0</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>0</v>
       </c>
       <c r="L18" t="s">
@@ -1645,87 +1896,87 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
         <v>20</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>2</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>2</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>3</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>16</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
         <v>10</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>0</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <v>0</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>0</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>10</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>0</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <v>0</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="10">
         <v>10</v>
       </c>
     </row>

--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\SmartStore\Documents\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA95BD0D-6685-4C0B-89BE-FC5009435A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2803233D-66A4-41B2-BE74-155876A4582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02Dec2022" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="01Dec2022" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="01Dec2022" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="206">
   <si>
     <t>Smart Store</t>
   </si>
@@ -539,6 +540,161 @@
   </si>
   <si>
     <t>Rough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarada </t>
+  </si>
+  <si>
+    <t>Jena</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Satya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amrit </t>
+  </si>
+  <si>
+    <t>Dhal</t>
+  </si>
+  <si>
+    <t>Chandan</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Employee Id</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Department Id</t>
+  </si>
+  <si>
+    <t>Chemical Physics</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Deals with the study of Physical Attributes and behaviors of matters</t>
+  </si>
+  <si>
+    <t>Deals with the study of Chemical Attributes and behaviors of matters</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Denormalization</t>
+  </si>
+  <si>
+    <t>Unique Identity</t>
+  </si>
+  <si>
+    <t>Chemial Science</t>
+  </si>
+  <si>
+    <t>Relational Database</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>Relational Database Management system</t>
+  </si>
+  <si>
+    <t>What is the Date of Birth of Amrit Dhal?</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action </t>
+  </si>
+  <si>
+    <t>Bring the Employees Records Book</t>
+  </si>
+  <si>
+    <t>Find All Employees with the Name Amrit Dhal</t>
+  </si>
+  <si>
+    <t>If there are more employees with the name Amrit Dhal then tell the requester that there are more than one employees with the name Amrit Dhal. Please provide more information about him</t>
+  </si>
+  <si>
+    <t>else Find the Column</t>
+  </si>
+  <si>
+    <t>F Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Name </t>
+  </si>
+  <si>
+    <t>L Name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Row</t>
+  </si>
+  <si>
+    <t>\/</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Select
+    DOB
+From
+    EmployeesRcords
+Where
+   Employee Name is Amrit Dhal</t>
   </si>
 </sst>
 </file>
@@ -620,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -639,6 +795,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA28CA-67D8-4BCF-A68C-482BB86AEB00}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -1994,6 +2170,985 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6379C4-C259-44D3-9F64-238EAA058887}">
+  <dimension ref="C1:AG52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M24" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="14">
+        <v>25934</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="14">
+        <v>28157</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="14">
+        <v>33298</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="14">
+        <v>35125</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="14">
+        <v>36192</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="L7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="AD8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="Y11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="14">
+        <v>25934</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="Y12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="14">
+        <v>28157</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="14">
+        <v>33298</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="14">
+        <v>35125</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="14">
+        <v>36192</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="X16" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="14">
+        <v>25934</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="N17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="14">
+        <v>28157</v>
+      </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C18" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="14">
+        <v>33298</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="14">
+        <v>35125</v>
+      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="14">
+        <v>36192</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="14">
+        <v>25934</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="14">
+        <v>28157</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="14">
+        <v>33298</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="14">
+        <v>35125</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="14">
+        <v>36192</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y39" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+    </row>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+    </row>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+    </row>
+    <row r="47" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+    </row>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+    </row>
+    <row r="49" spans="25:33" x14ac:dyDescent="0.3">
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+    </row>
+    <row r="50" spans="25:33" x14ac:dyDescent="0.3">
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="22"/>
+    </row>
+    <row r="51" spans="25:33" x14ac:dyDescent="0.3">
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+    </row>
+    <row r="52" spans="25:33" x14ac:dyDescent="0.3">
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="Y39:AG52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:V27"/>
   <sheetViews>

--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\SmartStore\Documents\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2803233D-66A4-41B2-BE74-155876A4582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96206969-4E0A-43D9-82A4-683EB82B15F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="02Dec2022" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
-    <sheet name="01Dec2022" sheetId="1" r:id="rId6"/>
+    <sheet name="18Dec2022" sheetId="8" r:id="rId1"/>
+    <sheet name="02Dec2022" sheetId="2" r:id="rId2"/>
+    <sheet name="01Dec2022" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId7"/>
+    <sheet name="NoSQL" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="270">
   <si>
     <t>Smart Store</t>
   </si>
@@ -695,6 +697,210 @@
     EmployeesRcords
 Where
    Employee Name is Amrit Dhal</t>
+  </si>
+  <si>
+    <t>Not Stored in relational tables</t>
+  </si>
+  <si>
+    <t>Not only SQL</t>
+  </si>
+  <si>
+    <t>Non SQL</t>
+  </si>
+  <si>
+    <t>store ustructured data</t>
+  </si>
+  <si>
+    <t>Emp No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Depart No</t>
+  </si>
+  <si>
+    <t>Sarada</t>
+  </si>
+  <si>
+    <t>Emp No: 1
+Name: Satya
+DOB: 02 May 1977
+Department No: 1
+Designation: Software Engineer</t>
+  </si>
+  <si>
+    <t>Emp No: 2
+Name: Sarada
+DOB: 01 Jan 1971
+Department No: 2
+Identification Mark: Scar on forehead</t>
+  </si>
+  <si>
+    <t>Emp No: 1
+Name: Satya</t>
+  </si>
+  <si>
+    <t>Emp No: 1
+DOB: 02 May 1977
+Department No: 1
+Designation: Software Engineer</t>
+  </si>
+  <si>
+    <t>Moonmun</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>CustomerName/DepartmentName/EmployeeId.xml</t>
+  </si>
+  <si>
+    <t>UU/Math/21.xml</t>
+  </si>
+  <si>
+    <t>Colgate Classic 50 g</t>
+  </si>
+  <si>
+    <t>Day Wise Sale</t>
+  </si>
+  <si>
+    <t>Weekly Sale</t>
+  </si>
+  <si>
+    <t>Monthly Sale</t>
+  </si>
+  <si>
+    <t>Quarterly Sale</t>
+  </si>
+  <si>
+    <t>Yearly Sale</t>
+  </si>
+  <si>
+    <t>Season Sale</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Week1..Week52</t>
+  </si>
+  <si>
+    <t>Year-1</t>
+  </si>
+  <si>
+    <t>Year-2</t>
+  </si>
+  <si>
+    <t>Year-3</t>
+  </si>
+  <si>
+    <t>Year-4</t>
+  </si>
+  <si>
+    <t>Running Year</t>
+  </si>
+  <si>
+    <t>Last 52 Weeks</t>
+  </si>
+  <si>
+    <t>Last 12 Months</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Over last 5 Years</t>
+  </si>
+  <si>
+    <t>Dewali</t>
+  </si>
+  <si>
+    <t>Dashera</t>
+  </si>
+  <si>
+    <t>Eid</t>
+  </si>
+  <si>
+    <t>Ramadan</t>
+  </si>
+  <si>
+    <t>Chrismas</t>
+  </si>
+  <si>
+    <t>Using a Book keeping Software</t>
+  </si>
+  <si>
+    <t>Not Using a Book Keeping Software</t>
+  </si>
+  <si>
+    <t>The Software provides APIs to get data</t>
+  </si>
+  <si>
+    <t>The Software provides Exports to get data</t>
+  </si>
+  <si>
+    <t>The software does not provide API or Exports</t>
+  </si>
+  <si>
+    <t>Write PlugIns to pull information</t>
+  </si>
+  <si>
+    <t>Write Enablers for Integration</t>
+  </si>
+  <si>
+    <t>PubgIn for Mapping and Inporting</t>
+  </si>
+  <si>
+    <t>UI to Import Data</t>
+  </si>
+  <si>
+    <t>PlugIn to Directly latch onto the Data</t>
+  </si>
+  <si>
+    <t>UI for Manual Entry</t>
+  </si>
+  <si>
+    <t>Scan Puchase Invoices Images</t>
+  </si>
+  <si>
+    <t>Upload Purchase Documents (Images/PDFs/Excel/CSV/etc…)</t>
+  </si>
+  <si>
+    <t>UI to Map documents to Purchase Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colgate 50 g Classic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colgate Original 50 g </t>
   </si>
 </sst>
 </file>
@@ -776,10 +982,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -790,19 +996,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,11 +1296,431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05017269-DD9A-4557-A2A5-45D511A37A72}">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1">
+        <v>43</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" t="s">
+        <v>247</v>
+      </c>
+      <c r="K18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B36C26-1E5B-4948-AB31-78D6977E3E12}">
   <dimension ref="C2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,12 +1973,284 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:V27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>35</v>
+      </c>
+      <c r="P16">
+        <f>N16-O16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>35</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P19" s="4">
+        <f>(O22*100)/M12</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <f>3*25/100</f>
+        <v>0.75</v>
+      </c>
+      <c r="P21">
+        <f>M19*P19/100</f>
+        <v>5.0000000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f>M19+P21</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>100</v>
+      </c>
+      <c r="V26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>0.2</v>
+      </c>
+      <c r="P27">
+        <f>0.2*100/4</f>
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>51</v>
+      </c>
+      <c r="T27">
+        <f>R27*N27</f>
+        <v>204</v>
+      </c>
+      <c r="V27">
+        <f>R27*O27</f>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA28CA-67D8-4BCF-A68C-482BB86AEB00}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5A8E8-159B-44AC-AA58-BA25A740A2E1}">
   <dimension ref="A2:E29"/>
   <sheetViews>
@@ -1659,7 +2552,7 @@
       <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1670,7 +2563,7 @@
       <c r="B3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1679,7 +2572,7 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1688,7 +2581,7 @@
       <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1697,7 +2590,7 @@
       <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1706,7 +2599,7 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1715,32 +2608,32 @@
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="12"/>
+      <c r="C13" s="15"/>
       <c r="D13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1748,88 +2641,88 @@
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1841,7 +2734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E2B513-F2C8-4386-973A-59B4FC26D85D}">
   <dimension ref="A8:M23"/>
   <sheetViews>
@@ -2169,12 +3062,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6379C4-C259-44D3-9F64-238EAA058887}">
   <dimension ref="C1:AG52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M24" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,22 +3090,22 @@
       </c>
     </row>
     <row r="2" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2226,7 +3119,7 @@
       <c r="E3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>25934</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2246,7 +3139,7 @@
       <c r="E4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>28157</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2266,7 +3159,7 @@
       <c r="E5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>33298</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2286,7 +3179,7 @@
       <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>35125</v>
       </c>
       <c r="G6" s="1"/>
@@ -2302,7 +3195,7 @@
       <c r="E7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>36192</v>
       </c>
       <c r="G7" s="1"/>
@@ -2313,33 +3206,28 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="13"/>
       <c r="AD8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="N9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="17" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2356,40 +3244,40 @@
       <c r="N10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="20"/>
+      <c r="O11" s="17"/>
       <c r="Y11" t="s">
         <v>202</v>
       </c>
@@ -2404,7 +3292,7 @@
       <c r="E12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>25934</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2425,7 +3313,7 @@
       <c r="N12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O12" s="20"/>
+      <c r="O12" s="17"/>
       <c r="Y12" t="s">
         <v>203</v>
       </c>
@@ -2440,7 +3328,7 @@
       <c r="E13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>28157</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2461,7 +3349,7 @@
       <c r="N13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="20"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
@@ -2473,7 +3361,7 @@
       <c r="E14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>33298</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2502,7 +3390,7 @@
       <c r="E15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>35125</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2546,7 +3434,7 @@
       <c r="E16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>36192</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2572,7 +3460,7 @@
         <v>157</v>
       </c>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="14">
+      <c r="AD16" s="12">
         <v>25934</v>
       </c>
       <c r="AE16" s="1"/>
@@ -2580,15 +3468,7 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="F17" s="13"/>
       <c r="N17" t="s">
         <v>189</v>
       </c>
@@ -2603,7 +3483,7 @@
         <v>157</v>
       </c>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="14">
+      <c r="AD17" s="12">
         <v>28157</v>
       </c>
       <c r="AE17" s="1"/>
@@ -2611,18 +3491,18 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="N18" t="s">
         <v>129</v>
       </c>
@@ -2637,7 +3517,7 @@
         <v>162</v>
       </c>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="14">
+      <c r="AD18" s="12">
         <v>33298</v>
       </c>
       <c r="AE18" s="1"/>
@@ -2656,7 +3536,7 @@
         <v>157</v>
       </c>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="14">
+      <c r="AD19" s="12">
         <v>35125</v>
       </c>
       <c r="AE19" s="1"/>
@@ -2664,22 +3544,22 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="11" t="s">
         <v>176</v>
       </c>
       <c r="Y20" s="1">
@@ -2693,7 +3573,7 @@
         <v>157</v>
       </c>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="14">
+      <c r="AD20" s="12">
         <v>36192</v>
       </c>
       <c r="AE20" s="1"/>
@@ -2710,7 +3590,7 @@
       <c r="E21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>25934</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2739,7 +3619,7 @@
       <c r="E22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>28157</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2768,7 +3648,7 @@
       <c r="E23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>33298</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2797,7 +3677,7 @@
       <c r="E24" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>35125</v>
       </c>
       <c r="G24" s="1"/>
@@ -2822,7 +3702,7 @@
       <c r="E25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>36192</v>
       </c>
       <c r="G25" s="1"/>
@@ -2981,160 +3861,160 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="39" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y39" s="21" t="s">
+      <c r="Y39" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
     </row>
     <row r="40" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
     </row>
     <row r="41" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
     </row>
     <row r="42" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
     </row>
     <row r="43" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
     </row>
     <row r="44" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
     </row>
     <row r="45" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
     </row>
     <row r="46" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="22"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
     </row>
     <row r="47" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
     </row>
     <row r="48" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
     </row>
     <row r="49" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
     </row>
     <row r="50" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
     </row>
     <row r="51" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
     </row>
     <row r="52" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3148,274 +4028,472 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:V27"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89685D1-B95D-4542-8CB3-CBBA3F8B6904}">
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="Q3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="U3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="12">
+        <v>28247</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="I10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M15" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="L12" s="1">
-        <v>7</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3</v>
-      </c>
-      <c r="N12" s="1">
-        <v>5</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="N14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="N15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="N16">
-        <v>40</v>
-      </c>
-      <c r="O16">
-        <v>35</v>
-      </c>
-      <c r="P16">
-        <f>N16-O16</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>35</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="P19" s="4">
-        <f>(O22*100)/M12</f>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="O21">
-        <f>3*25/100</f>
-        <v>0.75</v>
-      </c>
-      <c r="P21">
-        <f>M19*P19/100</f>
-        <v>5.0000000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="O22">
+      <c r="I25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="12">
+        <v>28247</v>
+      </c>
+      <c r="K25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="P24">
-        <f>M19+P21</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="R25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="M26" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
-      <c r="T26">
-        <v>100</v>
-      </c>
-      <c r="V26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="M27" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27">
-        <v>4</v>
-      </c>
-      <c r="O27">
-        <v>0.2</v>
-      </c>
-      <c r="P27">
-        <f>0.2*100/4</f>
-        <v>5</v>
-      </c>
-      <c r="R27">
-        <v>51</v>
-      </c>
-      <c r="T27">
-        <f>R27*N27</f>
-        <v>204</v>
-      </c>
-      <c r="V27">
-        <f>R27*O27</f>
-        <v>10.200000000000001</v>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M3:O13"/>
+    <mergeCell ref="M15:O25"/>
+    <mergeCell ref="Q3:S13"/>
+    <mergeCell ref="U3:W13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\SmartStore\Documents\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96206969-4E0A-43D9-82A4-683EB82B15F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FDC0CE-5110-4F29-8470-596C3FCC3F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="18Dec2022" sheetId="8" r:id="rId1"/>
-    <sheet name="02Dec2022" sheetId="2" r:id="rId2"/>
-    <sheet name="01Dec2022" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId7"/>
-    <sheet name="NoSQL" sheetId="7" r:id="rId8"/>
+    <sheet name="21Dec2022" sheetId="9" r:id="rId1"/>
+    <sheet name="18Dec2022" sheetId="8" r:id="rId2"/>
+    <sheet name="02Dec2022" sheetId="2" r:id="rId3"/>
+    <sheet name="01Dec2022" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId8"/>
+    <sheet name="NoSQL" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="291">
   <si>
     <t>Smart Store</t>
   </si>
@@ -902,12 +903,75 @@
   <si>
     <t xml:space="preserve">Colgate Original 50 g </t>
   </si>
+  <si>
+    <t xml:space="preserve">Credit Days </t>
+  </si>
+  <si>
+    <t>Average Sale per day</t>
+  </si>
+  <si>
+    <t>Sale in a Delivery Cycle</t>
+  </si>
+  <si>
+    <t>Delivery Cycle in days</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Std Delivey Qty</t>
+  </si>
+  <si>
+    <t>Inventroy Before Delivery</t>
+  </si>
+  <si>
+    <t>Delivery No</t>
+  </si>
+  <si>
+    <t>Delivery Quantity</t>
+  </si>
+  <si>
+    <t>Standary Delivery Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory After Delivery </t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Sold Before Next Delivery</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Payment Due by  Date</t>
+  </si>
+  <si>
+    <t>Delivery Date</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>Remaining Inventory</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Remaining Days for Payment</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,8 +987,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,8 +1015,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -978,11 +1062,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1017,11 +1169,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1032,6 +1218,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25707084-C3F6-49A3-872C-D79FB3A32550}" name="Table2" displayName="Table2" ref="A1:F2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F2" xr:uid="{25707084-C3F6-49A3-872C-D79FB3A32550}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{90F4BE1F-D3DA-4925-B3AF-76AB09EA2FF6}" name="Credit Days "/>
+    <tableColumn id="2" xr3:uid="{EE0BF025-53C1-46C5-B34E-39B4E1ABD984}" name="Average Sale per day"/>
+    <tableColumn id="3" xr3:uid="{5CA11825-72F7-4467-8788-62F4E4FDBF8C}" name="Delivery Cycle in days"/>
+    <tableColumn id="4" xr3:uid="{48262135-F278-45CE-AE38-ABDD51538ABC}" name="Sale in a Delivery Cycle">
+      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ECC30D0F-4D32-486B-A7B5-2A8D06C72DE8}" name="Buffer" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D2AEDAB7-A023-42A9-B887-CA115FFB47D9}" name="Std Delivey Qty">
+      <calculatedColumnFormula>D2+(D2*E2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1296,10 +1501,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895A9895-4E18-4ACC-96BF-12A3E1406598}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="18" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <f>D2+(D2*E2)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="13">
+        <v>44931</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G6" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G7" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="28">
+        <v>44916</v>
+      </c>
+      <c r="I7" s="29">
+        <v>10</v>
+      </c>
+      <c r="J7" s="29">
+        <v>200</v>
+      </c>
+      <c r="K7" s="29">
+        <f>J7-I7</f>
+        <v>190</v>
+      </c>
+      <c r="L7" s="29">
+        <f>K7+I7</f>
+        <v>200</v>
+      </c>
+      <c r="M7" s="29">
+        <v>60</v>
+      </c>
+      <c r="N7" s="28">
+        <f>'21Dec2022'!$H7+15</f>
+        <v>44931</v>
+      </c>
+      <c r="O7" s="30">
+        <f>_xlfn.DAYS(H4,H7)</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="30">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="31">
+        <f>_xlfn.DAYS(N7,H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G8" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="33">
+        <f>H7+5</f>
+        <v>44921</v>
+      </c>
+      <c r="I8" s="34">
+        <f>L7-M7</f>
+        <v>140</v>
+      </c>
+      <c r="J8" s="34">
+        <f>J7</f>
+        <v>200</v>
+      </c>
+      <c r="K8" s="29">
+        <f>J8-I8</f>
+        <v>60</v>
+      </c>
+      <c r="L8" s="29">
+        <f>K8+I8</f>
+        <v>200</v>
+      </c>
+      <c r="M8" s="34">
+        <v>40</v>
+      </c>
+      <c r="N8" s="33">
+        <f>'21Dec2022'!$H8+15</f>
+        <v>44936</v>
+      </c>
+      <c r="O8" s="35">
+        <f>_xlfn.DAYS(H4,H8)</f>
+        <v>10</v>
+      </c>
+      <c r="P8" s="35">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="31">
+        <f>_xlfn.DAYS(N8,H4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G9" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="33">
+        <f>H8+5</f>
+        <v>44926</v>
+      </c>
+      <c r="I9" s="34">
+        <f>L8-M8</f>
+        <v>160</v>
+      </c>
+      <c r="J9" s="34">
+        <f>J8</f>
+        <v>200</v>
+      </c>
+      <c r="K9" s="29">
+        <f>J9-I9</f>
+        <v>40</v>
+      </c>
+      <c r="L9" s="29">
+        <f>K9+I9</f>
+        <v>200</v>
+      </c>
+      <c r="M9" s="29">
+        <v>50</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G10" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="33">
+        <f>H9+5</f>
+        <v>44931</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05017269-DD9A-4557-A2A5-45D511A37A72}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -1715,7 +2176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B36C26-1E5B-4948-AB31-78D6977E3E12}">
   <dimension ref="C2:P35"/>
   <sheetViews>
@@ -1973,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:V27"/>
   <sheetViews>
@@ -2245,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA28CA-67D8-4BCF-A68C-482BB86AEB00}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -2529,7 +2990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5A8E8-159B-44AC-AA58-BA25A740A2E1}">
   <dimension ref="A2:E29"/>
   <sheetViews>
@@ -2734,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E2B513-F2C8-4386-973A-59B4FC26D85D}">
   <dimension ref="A8:M23"/>
   <sheetViews>
@@ -3062,7 +3523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6379C4-C259-44D3-9F64-238EAA058887}">
   <dimension ref="C1:AG52"/>
   <sheetViews>
@@ -4028,7 +4489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89685D1-B95D-4542-8CB3-CBBA3F8B6904}">
   <dimension ref="A1:W31"/>
   <sheetViews>

--- a/SmartStore/Documents/Misc/Working.xlsx
+++ b/SmartStore/Documents/Misc/Working.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartSVN\MMO\SmartStore\Documents\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FDC0CE-5110-4F29-8470-596C3FCC3F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBC0E1-DB34-4688-9B00-5F1583E361E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1560" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="21Dec2022" sheetId="9" r:id="rId1"/>
-    <sheet name="18Dec2022" sheetId="8" r:id="rId2"/>
-    <sheet name="02Dec2022" sheetId="2" r:id="rId3"/>
-    <sheet name="01Dec2022" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId8"/>
-    <sheet name="NoSQL" sheetId="7" r:id="rId9"/>
+    <sheet name="25Dec2022" sheetId="10" r:id="rId1"/>
+    <sheet name="21Dec2022" sheetId="9" r:id="rId2"/>
+    <sheet name="18Dec2022" sheetId="8" r:id="rId3"/>
+    <sheet name="02Dec2022" sheetId="2" r:id="rId4"/>
+    <sheet name="01Dec2022" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId9"/>
+    <sheet name="NoSQL" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="315">
   <si>
     <t>Smart Store</t>
   </si>
@@ -965,6 +966,78 @@
   </si>
   <si>
     <t>D4</t>
+  </si>
+  <si>
+    <t>Soft Drinks</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>200ml</t>
+  </si>
+  <si>
+    <t>300ml</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>.5L</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>Category ID</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Parent Category ID</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Pinaple</t>
+  </si>
+  <si>
+    <t>MixedFruit</t>
+  </si>
+  <si>
+    <t>Tetrapack</t>
+  </si>
+  <si>
+    <t>200ML</t>
+  </si>
+  <si>
+    <t>300ML</t>
+  </si>
+  <si>
+    <t>500ML</t>
+  </si>
+  <si>
+    <t>8000CC</t>
+  </si>
+  <si>
+    <t>Is Leaf</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1069,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,8 +1100,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1130,11 +1209,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1151,6 +1273,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1169,43 +1317,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,7 +1477,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25707084-C3F6-49A3-872C-D79FB3A32550}" name="Table2" displayName="Table2" ref="A1:F2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8EF32B0-88A7-4FFF-93C7-6AEC64459936}" name="Table1" displayName="Table1" ref="F18:J41" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="F18:J41" xr:uid="{B8EF32B0-88A7-4FFF-93C7-6AEC64459936}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C7517B09-7D5B-42A5-A8AC-EA899F82B9A8}" name="Category ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{11E332F3-61A0-4DA4-AA09-DB098ADEC7D1}" name="Category Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BA40E188-E6A0-456F-A807-DCCD0682497B}" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A715ED8E-E075-4047-8825-F42BB5FC175E}" name="Parent Category ID" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F83AB503-6D91-4854-8564-54354C2DF20C}" name="Is Leaf" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25707084-C3F6-49A3-872C-D79FB3A32550}" name="Table2" displayName="Table2" ref="A1:F2" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:F2" xr:uid="{25707084-C3F6-49A3-872C-D79FB3A32550}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{90F4BE1F-D3DA-4925-B3AF-76AB09EA2FF6}" name="Credit Days "/>
@@ -1230,7 +1500,7 @@
     <tableColumn id="4" xr3:uid="{48262135-F278-45CE-AE38-ABDD51538ABC}" name="Sale in a Delivery Cycle">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ECC30D0F-4D32-486B-A7B5-2A8D06C72DE8}" name="Buffer" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{ECC30D0F-4D32-486B-A7B5-2A8D06C72DE8}" name="Buffer" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{D2AEDAB7-A023-42A9-B887-CA115FFB47D9}" name="Std Delivey Qty">
       <calculatedColumnFormula>D2+(D2*E2)</calculatedColumnFormula>
     </tableColumn>
@@ -1501,10 +1771,1054 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383D9C6D-25A6-4755-BEB1-047841C24D29}">
+  <dimension ref="C2:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F18" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="M19" s="39">
+        <v>1</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="N20" s="40">
+        <v>3</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="P20" s="44"/>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N21" s="42">
+        <v>4</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N22" s="40">
+        <v>5</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N23" s="42">
+        <v>10</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O24" s="42">
+        <v>18</v>
+      </c>
+      <c r="P24" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q24" s="44"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O25" s="40">
+        <v>19</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q25" s="44"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O26" s="42">
+        <v>20</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="44"/>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="N27" s="40">
+        <v>11</v>
+      </c>
+      <c r="O27" s="41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="O28" s="40">
+        <v>21</v>
+      </c>
+      <c r="P28" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q28" s="44"/>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="O29" s="42">
+        <v>22</v>
+      </c>
+      <c r="P29" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q29" s="44"/>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="M30" s="42">
+        <v>2</v>
+      </c>
+      <c r="N30" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>9</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N31" s="42">
+        <v>6</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="P31" s="44"/>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>9</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N32" s="40">
+        <v>7</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="P32" s="44"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
+        <v>9</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N33" s="42">
+        <v>8</v>
+      </c>
+      <c r="O33" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="P33" s="44"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N34" s="40">
+        <v>9</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" s="40">
+        <v>13</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="44"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" s="42">
+        <v>14</v>
+      </c>
+      <c r="P36" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q36" s="44"/>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F37" s="1">
+        <v>19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" s="40">
+        <v>15</v>
+      </c>
+      <c r="P37" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q37" s="44"/>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F38" s="1">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N38" s="42">
+        <v>12</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F39" s="1">
+        <v>21</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>11</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O39" s="42">
+        <v>16</v>
+      </c>
+      <c r="P39" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q39" s="44"/>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F40" s="1">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>11</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O40" s="40">
+        <v>17</v>
+      </c>
+      <c r="P40" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q40" s="44"/>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F41" s="1">
+        <v>23</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89685D1-B95D-4542-8CB3-CBBA3F8B6904}">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="Q3" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="U3" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="12">
+        <v>28247</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M15" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="12">
+        <v>25934</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="12">
+        <v>28247</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M3:O13"/>
+    <mergeCell ref="M15:O25"/>
+    <mergeCell ref="Q3:S13"/>
+    <mergeCell ref="U3:W13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895A9895-4E18-4ACC-96BF-12A3E1406598}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1526,22 +2840,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>275</v>
       </c>
     </row>
@@ -1579,173 +2893,173 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="22">
         <v>44916</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="23">
         <v>10</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="23">
         <v>200</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="23">
         <f>J7-I7</f>
         <v>190</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="23">
         <f>K7+I7</f>
         <v>200</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="23">
         <v>60</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="22">
         <f>'21Dec2022'!$H7+15</f>
         <v>44931</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="24">
         <f>_xlfn.DAYS(H4,H7)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="24">
         <v>40</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="25">
         <f>_xlfn.DAYS(N7,H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="27">
         <f>H7+5</f>
         <v>44921</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="28">
         <f>L7-M7</f>
         <v>140</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="28">
         <f>J7</f>
         <v>200</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="23">
         <f>J8-I8</f>
         <v>60</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="23">
         <f>K8+I8</f>
         <v>200</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="28">
         <v>40</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="27">
         <f>'21Dec2022'!$H8+15</f>
         <v>44936</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="29">
         <f>_xlfn.DAYS(H4,H8)</f>
         <v>10</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="29">
         <v>30</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="25">
         <f>_xlfn.DAYS(N8,H4)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="27">
         <f>H8+5</f>
         <v>44926</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="28">
         <f>L8-M8</f>
         <v>160</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="28">
         <f>J8</f>
         <v>200</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="23">
         <f>J9-I9</f>
         <v>40</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="23">
         <f>K9+I9</f>
         <v>200</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="23">
         <v>50</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="27">
         <f>H9+5</f>
         <v>44931</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="23"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,7 +3070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05017269-DD9A-4557-A2A5-45D511A37A72}">
   <dimension ref="A1:M53"/>
   <sheetViews>
@@ -2176,7 +3490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B36C26-1E5B-4948-AB31-78D6977E3E12}">
   <dimension ref="C2:P35"/>
   <sheetViews>
@@ -2434,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:V27"/>
   <sheetViews>
@@ -2706,7 +4020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA28CA-67D8-4BCF-A68C-482BB86AEB00}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -2990,7 +4304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5A8E8-159B-44AC-AA58-BA25A740A2E1}">
   <dimension ref="A2:E29"/>
   <sheetViews>
@@ -3013,7 +4327,7 @@
       <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="32" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3024,7 +4338,7 @@
       <c r="B3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3033,7 +4347,7 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3042,7 +4356,7 @@
       <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3051,7 +4365,7 @@
       <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -3060,7 +4374,7 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -3069,32 +4383,32 @@
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
+      <c r="C13" s="33"/>
       <c r="D13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3102,88 +4416,88 @@
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3195,7 +4509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E2B513-F2C8-4386-973A-59B4FC26D85D}">
   <dimension ref="A8:M23"/>
   <sheetViews>
@@ -3523,7 +4837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6379C4-C259-44D3-9F64-238EAA058887}">
   <dimension ref="C1:AG52"/>
   <sheetViews>
@@ -3673,22 +4987,22 @@
       </c>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="N9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="35" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3705,7 +5019,7 @@
       <c r="N10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O10" s="17"/>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
@@ -3738,7 +5052,7 @@
       <c r="N11" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="17"/>
+      <c r="O11" s="35"/>
       <c r="Y11" t="s">
         <v>202</v>
       </c>
@@ -3774,7 +5088,7 @@
       <c r="N12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O12" s="17"/>
+      <c r="O12" s="35"/>
       <c r="Y12" t="s">
         <v>203</v>
       </c>
@@ -3810,7 +5124,7 @@
       <c r="N13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="17"/>
+      <c r="O13" s="35"/>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
@@ -3952,18 +5266,18 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="N18" t="s">
         <v>129</v>
       </c>
@@ -4322,160 +5636,160 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="39" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y39" s="18" t="s">
+      <c r="Y39" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
     </row>
     <row r="40" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
     </row>
     <row r="41" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
     </row>
     <row r="42" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
     </row>
     <row r="43" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
     </row>
     <row r="44" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
     </row>
     <row r="45" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
     </row>
     <row r="46" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
     </row>
     <row r="47" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
     </row>
     <row r="48" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
     </row>
     <row r="49" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
     </row>
     <row r="50" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
     </row>
     <row r="51" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
     </row>
     <row r="52" spans="25:33" x14ac:dyDescent="0.3">
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4487,474 +5801,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89685D1-B95D-4542-8CB3-CBBA3F8B6904}">
-  <dimension ref="A1:W31"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="Q3" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="U3" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="12">
-        <v>28247</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H7" s="1">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H9" s="1">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H10" s="1">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H11" s="1">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J11" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="1"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="1"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M15" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H18" s="1">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2</v>
-      </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H19" s="1">
-        <v>6</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J19" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2</v>
-      </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2</v>
-      </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H21" s="1">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J21" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2</v>
-      </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H22" s="1">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J22" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H23" s="1">
-        <v>5</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2</v>
-      </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J24" s="12">
-        <v>25934</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-    </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J25" s="12">
-        <v>28247</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M3:O13"/>
-    <mergeCell ref="M15:O25"/>
-    <mergeCell ref="Q3:S13"/>
-    <mergeCell ref="U3:W13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>